--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_179.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_179.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29112-d75846-Reviews-Days_Inn_Suites_Artesia-Artesia_California.html</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>303</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Days-Inn-Suites-By-Wyndham-Artesia.h1677511.Hotel-Information?chkin=6%2F18%2F2018&amp;chkout=6%2F19%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528257346385&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=0635cacd-4a5e-4a4a-9816-406df0366649&amp;mctc=9&amp;exp_dp=85&amp;exp_ts=1528257346870&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_179.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_179.xlsx
@@ -4750,7 +4750,7 @@
         <v>19501</v>
       </c>
       <c r="B3" t="n">
-        <v>134293</v>
+        <v>165170</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -4825,7 +4825,7 @@
         <v>19501</v>
       </c>
       <c r="B4" t="n">
-        <v>134294</v>
+        <v>165171</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -4898,7 +4898,7 @@
         <v>19501</v>
       </c>
       <c r="B5" t="n">
-        <v>134295</v>
+        <v>165172</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -5048,7 +5048,7 @@
         <v>19501</v>
       </c>
       <c r="B7" t="n">
-        <v>134296</v>
+        <v>165173</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -5190,7 +5190,7 @@
         <v>19501</v>
       </c>
       <c r="B9" t="n">
-        <v>134297</v>
+        <v>165174</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
@@ -5265,7 +5265,7 @@
         <v>19501</v>
       </c>
       <c r="B10" t="n">
-        <v>134298</v>
+        <v>134330</v>
       </c>
       <c r="C10" t="s">
         <v>126</v>
@@ -5340,7 +5340,7 @@
         <v>19501</v>
       </c>
       <c r="B11" t="n">
-        <v>134299</v>
+        <v>165175</v>
       </c>
       <c r="C11" t="s">
         <v>136</v>
@@ -5415,7 +5415,7 @@
         <v>19501</v>
       </c>
       <c r="B12" t="n">
-        <v>134300</v>
+        <v>165176</v>
       </c>
       <c r="C12" t="s">
         <v>145</v>
@@ -5490,7 +5490,7 @@
         <v>19501</v>
       </c>
       <c r="B13" t="n">
-        <v>134301</v>
+        <v>134307</v>
       </c>
       <c r="C13" t="s">
         <v>155</v>
@@ -5715,7 +5715,7 @@
         <v>19501</v>
       </c>
       <c r="B16" t="n">
-        <v>134302</v>
+        <v>165177</v>
       </c>
       <c r="C16" t="s">
         <v>182</v>
@@ -5780,7 +5780,7 @@
         <v>19501</v>
       </c>
       <c r="B17" t="n">
-        <v>134303</v>
+        <v>165178</v>
       </c>
       <c r="C17" t="s">
         <v>193</v>
@@ -5855,7 +5855,7 @@
         <v>19501</v>
       </c>
       <c r="B18" t="n">
-        <v>134304</v>
+        <v>165179</v>
       </c>
       <c r="C18" t="s">
         <v>202</v>
@@ -5930,7 +5930,7 @@
         <v>19501</v>
       </c>
       <c r="B19" t="n">
-        <v>134305</v>
+        <v>165180</v>
       </c>
       <c r="C19" t="s">
         <v>211</v>
@@ -6005,7 +6005,7 @@
         <v>19501</v>
       </c>
       <c r="B20" t="n">
-        <v>134306</v>
+        <v>165181</v>
       </c>
       <c r="C20" t="s">
         <v>219</v>
@@ -6076,7 +6076,7 @@
         <v>19501</v>
       </c>
       <c r="B21" t="n">
-        <v>134307</v>
+        <v>165182</v>
       </c>
       <c r="C21" t="s">
         <v>227</v>
@@ -6226,7 +6226,7 @@
         <v>19501</v>
       </c>
       <c r="B23" t="n">
-        <v>134308</v>
+        <v>165183</v>
       </c>
       <c r="C23" t="s">
         <v>241</v>
@@ -6295,7 +6295,7 @@
         <v>19501</v>
       </c>
       <c r="B24" t="n">
-        <v>134309</v>
+        <v>165184</v>
       </c>
       <c r="C24" t="s">
         <v>250</v>
@@ -6370,7 +6370,7 @@
         <v>19501</v>
       </c>
       <c r="B25" t="n">
-        <v>134310</v>
+        <v>165185</v>
       </c>
       <c r="C25" t="s">
         <v>257</v>
@@ -6445,7 +6445,7 @@
         <v>19501</v>
       </c>
       <c r="B26" t="n">
-        <v>134311</v>
+        <v>165186</v>
       </c>
       <c r="C26" t="s">
         <v>266</v>
@@ -6516,7 +6516,7 @@
         <v>19501</v>
       </c>
       <c r="B27" t="n">
-        <v>134312</v>
+        <v>165187</v>
       </c>
       <c r="C27" t="s">
         <v>274</v>
@@ -6591,7 +6591,7 @@
         <v>19501</v>
       </c>
       <c r="B28" t="n">
-        <v>134313</v>
+        <v>165188</v>
       </c>
       <c r="C28" t="s">
         <v>281</v>
@@ -6666,7 +6666,7 @@
         <v>19501</v>
       </c>
       <c r="B29" t="n">
-        <v>134314</v>
+        <v>165189</v>
       </c>
       <c r="C29" t="s">
         <v>291</v>
@@ -6731,7 +6731,7 @@
         <v>19501</v>
       </c>
       <c r="B30" t="n">
-        <v>134315</v>
+        <v>165190</v>
       </c>
       <c r="C30" t="s">
         <v>298</v>
@@ -6806,7 +6806,7 @@
         <v>19501</v>
       </c>
       <c r="B31" t="n">
-        <v>134316</v>
+        <v>165191</v>
       </c>
       <c r="C31" t="s">
         <v>305</v>
@@ -6942,7 +6942,7 @@
         <v>19501</v>
       </c>
       <c r="B33" t="n">
-        <v>134317</v>
+        <v>165192</v>
       </c>
       <c r="C33" t="s">
         <v>325</v>
@@ -7088,7 +7088,7 @@
         <v>19501</v>
       </c>
       <c r="B35" t="n">
-        <v>134318</v>
+        <v>165193</v>
       </c>
       <c r="C35" t="s">
         <v>340</v>
@@ -7313,7 +7313,7 @@
         <v>19501</v>
       </c>
       <c r="B38" t="n">
-        <v>134319</v>
+        <v>165194</v>
       </c>
       <c r="C38" t="s">
         <v>365</v>
@@ -7388,7 +7388,7 @@
         <v>19501</v>
       </c>
       <c r="B39" t="n">
-        <v>134320</v>
+        <v>165195</v>
       </c>
       <c r="C39" t="s">
         <v>372</v>
@@ -7463,7 +7463,7 @@
         <v>19501</v>
       </c>
       <c r="B40" t="n">
-        <v>134321</v>
+        <v>165196</v>
       </c>
       <c r="C40" t="s">
         <v>380</v>
@@ -7538,7 +7538,7 @@
         <v>19501</v>
       </c>
       <c r="B41" t="n">
-        <v>134322</v>
+        <v>165197</v>
       </c>
       <c r="C41" t="s">
         <v>387</v>
@@ -7688,7 +7688,7 @@
         <v>19501</v>
       </c>
       <c r="B43" t="n">
-        <v>134323</v>
+        <v>165198</v>
       </c>
       <c r="C43" t="s">
         <v>401</v>
@@ -7838,7 +7838,7 @@
         <v>19501</v>
       </c>
       <c r="B45" t="n">
-        <v>134324</v>
+        <v>165199</v>
       </c>
       <c r="C45" t="s">
         <v>418</v>
@@ -7913,7 +7913,7 @@
         <v>19501</v>
       </c>
       <c r="B46" t="n">
-        <v>134325</v>
+        <v>165200</v>
       </c>
       <c r="C46" t="s">
         <v>425</v>
@@ -7984,7 +7984,7 @@
         <v>19501</v>
       </c>
       <c r="B47" t="n">
-        <v>134326</v>
+        <v>165201</v>
       </c>
       <c r="C47" t="s">
         <v>432</v>
@@ -8059,7 +8059,7 @@
         <v>19501</v>
       </c>
       <c r="B48" t="n">
-        <v>134327</v>
+        <v>165202</v>
       </c>
       <c r="C48" t="s">
         <v>439</v>
@@ -8124,7 +8124,7 @@
         <v>19501</v>
       </c>
       <c r="B49" t="n">
-        <v>134328</v>
+        <v>165203</v>
       </c>
       <c r="C49" t="s">
         <v>446</v>
@@ -8199,7 +8199,7 @@
         <v>19501</v>
       </c>
       <c r="B50" t="n">
-        <v>134329</v>
+        <v>165204</v>
       </c>
       <c r="C50" t="s">
         <v>453</v>
@@ -8274,7 +8274,7 @@
         <v>19501</v>
       </c>
       <c r="B51" t="n">
-        <v>134330</v>
+        <v>165205</v>
       </c>
       <c r="C51" t="s">
         <v>462</v>
@@ -8349,7 +8349,7 @@
         <v>19501</v>
       </c>
       <c r="B52" t="n">
-        <v>134331</v>
+        <v>165206</v>
       </c>
       <c r="C52" t="s">
         <v>470</v>
@@ -8499,7 +8499,7 @@
         <v>19501</v>
       </c>
       <c r="B54" t="n">
-        <v>134332</v>
+        <v>165207</v>
       </c>
       <c r="C54" t="s">
         <v>487</v>
@@ -8574,7 +8574,7 @@
         <v>19501</v>
       </c>
       <c r="B55" t="n">
-        <v>134333</v>
+        <v>165208</v>
       </c>
       <c r="C55" t="s">
         <v>496</v>
@@ -8649,7 +8649,7 @@
         <v>19501</v>
       </c>
       <c r="B56" t="n">
-        <v>134334</v>
+        <v>165209</v>
       </c>
       <c r="C56" t="s">
         <v>506</v>
@@ -8799,7 +8799,7 @@
         <v>19501</v>
       </c>
       <c r="B58" t="n">
-        <v>134335</v>
+        <v>165210</v>
       </c>
       <c r="C58" t="s">
         <v>519</v>
@@ -8935,7 +8935,7 @@
         <v>19501</v>
       </c>
       <c r="B60" t="n">
-        <v>134336</v>
+        <v>165211</v>
       </c>
       <c r="C60" t="s">
         <v>536</v>
@@ -9010,7 +9010,7 @@
         <v>19501</v>
       </c>
       <c r="B61" t="n">
-        <v>134337</v>
+        <v>165212</v>
       </c>
       <c r="C61" t="s">
         <v>543</v>
@@ -9085,7 +9085,7 @@
         <v>19501</v>
       </c>
       <c r="B62" t="n">
-        <v>134338</v>
+        <v>134309</v>
       </c>
       <c r="C62" t="s">
         <v>552</v>
@@ -9160,7 +9160,7 @@
         <v>19501</v>
       </c>
       <c r="B63" t="n">
-        <v>134339</v>
+        <v>134316</v>
       </c>
       <c r="C63" t="s">
         <v>560</v>
@@ -9235,7 +9235,7 @@
         <v>19501</v>
       </c>
       <c r="B64" t="n">
-        <v>134340</v>
+        <v>165213</v>
       </c>
       <c r="C64" t="s">
         <v>566</v>
@@ -9310,7 +9310,7 @@
         <v>19501</v>
       </c>
       <c r="B65" t="n">
-        <v>134341</v>
+        <v>165214</v>
       </c>
       <c r="C65" t="s">
         <v>575</v>
@@ -9385,7 +9385,7 @@
         <v>19501</v>
       </c>
       <c r="B66" t="n">
-        <v>134342</v>
+        <v>165215</v>
       </c>
       <c r="C66" t="s">
         <v>585</v>
@@ -9460,7 +9460,7 @@
         <v>19501</v>
       </c>
       <c r="B67" t="n">
-        <v>134343</v>
+        <v>165216</v>
       </c>
       <c r="C67" t="s">
         <v>593</v>
@@ -9535,7 +9535,7 @@
         <v>19501</v>
       </c>
       <c r="B68" t="n">
-        <v>134344</v>
+        <v>165217</v>
       </c>
       <c r="C68" t="s">
         <v>602</v>
@@ -9610,7 +9610,7 @@
         <v>19501</v>
       </c>
       <c r="B69" t="n">
-        <v>134345</v>
+        <v>165218</v>
       </c>
       <c r="C69" t="s">
         <v>612</v>
@@ -9685,7 +9685,7 @@
         <v>19501</v>
       </c>
       <c r="B70" t="n">
-        <v>134346</v>
+        <v>165219</v>
       </c>
       <c r="C70" t="s">
         <v>619</v>
@@ -9760,7 +9760,7 @@
         <v>19501</v>
       </c>
       <c r="B71" t="n">
-        <v>134300</v>
+        <v>134307</v>
       </c>
       <c r="C71" t="s">
         <v>155</v>
@@ -9835,7 +9835,7 @@
         <v>19501</v>
       </c>
       <c r="B72" t="n">
-        <v>134347</v>
+        <v>165220</v>
       </c>
       <c r="C72" t="s">
         <v>635</v>
@@ -9910,7 +9910,7 @@
         <v>19501</v>
       </c>
       <c r="B73" t="n">
-        <v>134348</v>
+        <v>165221</v>
       </c>
       <c r="C73" t="s">
         <v>644</v>
@@ -9985,7 +9985,7 @@
         <v>19501</v>
       </c>
       <c r="B74" t="n">
-        <v>134349</v>
+        <v>165222</v>
       </c>
       <c r="C74" t="s">
         <v>654</v>
@@ -10060,7 +10060,7 @@
         <v>19501</v>
       </c>
       <c r="B75" t="n">
-        <v>134350</v>
+        <v>165223</v>
       </c>
       <c r="C75" t="s">
         <v>664</v>
@@ -10125,7 +10125,7 @@
         <v>19501</v>
       </c>
       <c r="B76" t="n">
-        <v>134351</v>
+        <v>165224</v>
       </c>
       <c r="C76" t="s">
         <v>672</v>
@@ -10275,7 +10275,7 @@
         <v>19501</v>
       </c>
       <c r="B78" t="n">
-        <v>134352</v>
+        <v>165225</v>
       </c>
       <c r="C78" t="s">
         <v>686</v>
@@ -10350,7 +10350,7 @@
         <v>19501</v>
       </c>
       <c r="B79" t="n">
-        <v>134353</v>
+        <v>165226</v>
       </c>
       <c r="C79" t="s">
         <v>694</v>
@@ -10421,7 +10421,7 @@
         <v>19501</v>
       </c>
       <c r="B80" t="n">
-        <v>134337</v>
+        <v>134309</v>
       </c>
       <c r="C80" t="s">
         <v>552</v>
@@ -10496,7 +10496,7 @@
         <v>19501</v>
       </c>
       <c r="B81" t="n">
-        <v>134354</v>
+        <v>165227</v>
       </c>
       <c r="C81" t="s">
         <v>707</v>
@@ -10571,7 +10571,7 @@
         <v>19501</v>
       </c>
       <c r="B82" t="n">
-        <v>134355</v>
+        <v>165228</v>
       </c>
       <c r="C82" t="s">
         <v>714</v>
@@ -10721,7 +10721,7 @@
         <v>19501</v>
       </c>
       <c r="B84" t="n">
-        <v>134356</v>
+        <v>165229</v>
       </c>
       <c r="C84" t="s">
         <v>733</v>
@@ -10936,7 +10936,7 @@
         <v>19501</v>
       </c>
       <c r="B87" t="n">
-        <v>134357</v>
+        <v>165230</v>
       </c>
       <c r="C87" t="s">
         <v>759</v>
@@ -11161,7 +11161,7 @@
         <v>19501</v>
       </c>
       <c r="B90" t="n">
-        <v>134358</v>
+        <v>165231</v>
       </c>
       <c r="C90" t="s">
         <v>786</v>
@@ -11309,7 +11309,7 @@
         <v>19501</v>
       </c>
       <c r="B92" t="n">
-        <v>134359</v>
+        <v>165232</v>
       </c>
       <c r="C92" t="s">
         <v>796</v>
@@ -11384,7 +11384,7 @@
         <v>19501</v>
       </c>
       <c r="B93" t="n">
-        <v>134360</v>
+        <v>165233</v>
       </c>
       <c r="C93" t="s">
         <v>806</v>
@@ -11459,7 +11459,7 @@
         <v>19501</v>
       </c>
       <c r="B94" t="n">
-        <v>134361</v>
+        <v>165234</v>
       </c>
       <c r="C94" t="s">
         <v>812</v>
@@ -11534,7 +11534,7 @@
         <v>19501</v>
       </c>
       <c r="B95" t="n">
-        <v>134362</v>
+        <v>165235</v>
       </c>
       <c r="C95" t="s">
         <v>821</v>
@@ -11609,7 +11609,7 @@
         <v>19501</v>
       </c>
       <c r="B96" t="n">
-        <v>134363</v>
+        <v>165236</v>
       </c>
       <c r="C96" t="s">
         <v>831</v>
@@ -11684,7 +11684,7 @@
         <v>19501</v>
       </c>
       <c r="B97" t="n">
-        <v>134364</v>
+        <v>165237</v>
       </c>
       <c r="C97" t="s">
         <v>840</v>
@@ -11759,7 +11759,7 @@
         <v>19501</v>
       </c>
       <c r="B98" t="n">
-        <v>134365</v>
+        <v>165238</v>
       </c>
       <c r="C98" t="s">
         <v>848</v>
@@ -11834,7 +11834,7 @@
         <v>19501</v>
       </c>
       <c r="B99" t="n">
-        <v>134338</v>
+        <v>134316</v>
       </c>
       <c r="C99" t="s">
         <v>560</v>
@@ -11909,7 +11909,7 @@
         <v>19501</v>
       </c>
       <c r="B100" t="n">
-        <v>134366</v>
+        <v>165239</v>
       </c>
       <c r="C100" t="s">
         <v>863</v>
@@ -12055,7 +12055,7 @@
         <v>19501</v>
       </c>
       <c r="B102" t="n">
-        <v>134367</v>
+        <v>165240</v>
       </c>
       <c r="C102" t="s">
         <v>878</v>
@@ -12126,7 +12126,7 @@
         <v>19501</v>
       </c>
       <c r="B103" t="n">
-        <v>134368</v>
+        <v>165241</v>
       </c>
       <c r="C103" t="s">
         <v>888</v>
@@ -12197,7 +12197,7 @@
         <v>19501</v>
       </c>
       <c r="B104" t="n">
-        <v>134369</v>
+        <v>165242</v>
       </c>
       <c r="C104" t="s">
         <v>897</v>
@@ -12347,7 +12347,7 @@
         <v>19501</v>
       </c>
       <c r="B106" t="n">
-        <v>134370</v>
+        <v>165243</v>
       </c>
       <c r="C106" t="s">
         <v>911</v>
@@ -12497,7 +12497,7 @@
         <v>19501</v>
       </c>
       <c r="B108" t="n">
-        <v>134371</v>
+        <v>165244</v>
       </c>
       <c r="C108" t="s">
         <v>930</v>
@@ -12568,7 +12568,7 @@
         <v>19501</v>
       </c>
       <c r="B109" t="n">
-        <v>134372</v>
+        <v>165245</v>
       </c>
       <c r="C109" t="s">
         <v>939</v>
@@ -12866,7 +12866,7 @@
         <v>19501</v>
       </c>
       <c r="B113" t="n">
-        <v>134373</v>
+        <v>165246</v>
       </c>
       <c r="C113" t="s">
         <v>975</v>
@@ -12937,7 +12937,7 @@
         <v>19501</v>
       </c>
       <c r="B114" t="n">
-        <v>134374</v>
+        <v>165247</v>
       </c>
       <c r="C114" t="s">
         <v>984</v>
@@ -13087,7 +13087,7 @@
         <v>19501</v>
       </c>
       <c r="B116" t="n">
-        <v>134375</v>
+        <v>165248</v>
       </c>
       <c r="C116" t="s">
         <v>999</v>
@@ -13227,7 +13227,7 @@
         <v>19501</v>
       </c>
       <c r="B118" t="n">
-        <v>134376</v>
+        <v>165249</v>
       </c>
       <c r="C118" t="s">
         <v>1015</v>
@@ -13377,7 +13377,7 @@
         <v>19501</v>
       </c>
       <c r="B120" t="n">
-        <v>134377</v>
+        <v>165250</v>
       </c>
       <c r="C120" t="s">
         <v>1031</v>
@@ -13527,7 +13527,7 @@
         <v>19501</v>
       </c>
       <c r="B122" t="n">
-        <v>134378</v>
+        <v>165251</v>
       </c>
       <c r="C122" t="s">
         <v>1046</v>
@@ -13602,7 +13602,7 @@
         <v>19501</v>
       </c>
       <c r="B123" t="n">
-        <v>134379</v>
+        <v>165252</v>
       </c>
       <c r="C123" t="s">
         <v>1054</v>
@@ -13752,7 +13752,7 @@
         <v>19501</v>
       </c>
       <c r="B125" t="n">
-        <v>134380</v>
+        <v>165253</v>
       </c>
       <c r="C125" t="s">
         <v>1069</v>
@@ -13823,7 +13823,7 @@
         <v>19501</v>
       </c>
       <c r="B126" t="n">
-        <v>134381</v>
+        <v>165254</v>
       </c>
       <c r="C126" t="s">
         <v>1076</v>
@@ -14036,7 +14036,7 @@
         <v>19501</v>
       </c>
       <c r="B129" t="n">
-        <v>134297</v>
+        <v>134330</v>
       </c>
       <c r="C129" t="s">
         <v>126</v>
@@ -14107,7 +14107,7 @@
         <v>19501</v>
       </c>
       <c r="B130" t="n">
-        <v>134382</v>
+        <v>165255</v>
       </c>
       <c r="C130" t="s">
         <v>1098</v>
@@ -14257,7 +14257,7 @@
         <v>19501</v>
       </c>
       <c r="B132" t="n">
-        <v>134383</v>
+        <v>165256</v>
       </c>
       <c r="C132" t="s">
         <v>1117</v>
@@ -14332,7 +14332,7 @@
         <v>19501</v>
       </c>
       <c r="B133" t="n">
-        <v>134384</v>
+        <v>165257</v>
       </c>
       <c r="C133" t="s">
         <v>1126</v>
@@ -14407,7 +14407,7 @@
         <v>19501</v>
       </c>
       <c r="B134" t="n">
-        <v>134385</v>
+        <v>165258</v>
       </c>
       <c r="C134" t="s">
         <v>1134</v>
@@ -14482,7 +14482,7 @@
         <v>19501</v>
       </c>
       <c r="B135" t="n">
-        <v>134386</v>
+        <v>165259</v>
       </c>
       <c r="C135" t="s">
         <v>1142</v>
@@ -14557,7 +14557,7 @@
         <v>19501</v>
       </c>
       <c r="B136" t="n">
-        <v>134387</v>
+        <v>165260</v>
       </c>
       <c r="C136" t="s">
         <v>1149</v>
@@ -14632,7 +14632,7 @@
         <v>19501</v>
       </c>
       <c r="B137" t="n">
-        <v>134388</v>
+        <v>165261</v>
       </c>
       <c r="C137" t="s">
         <v>1156</v>
@@ -14707,7 +14707,7 @@
         <v>19501</v>
       </c>
       <c r="B138" t="n">
-        <v>134389</v>
+        <v>165262</v>
       </c>
       <c r="C138" t="s">
         <v>1164</v>
@@ -14782,7 +14782,7 @@
         <v>19501</v>
       </c>
       <c r="B139" t="n">
-        <v>134390</v>
+        <v>165263</v>
       </c>
       <c r="C139" t="s">
         <v>1171</v>
@@ -14847,7 +14847,7 @@
         <v>19501</v>
       </c>
       <c r="B140" t="n">
-        <v>134391</v>
+        <v>165264</v>
       </c>
       <c r="C140" t="s">
         <v>1178</v>
@@ -14922,7 +14922,7 @@
         <v>19501</v>
       </c>
       <c r="B141" t="n">
-        <v>134392</v>
+        <v>165265</v>
       </c>
       <c r="C141" t="s">
         <v>1188</v>
@@ -14993,7 +14993,7 @@
         <v>19501</v>
       </c>
       <c r="B142" t="n">
-        <v>134393</v>
+        <v>165266</v>
       </c>
       <c r="C142" t="s">
         <v>1195</v>
@@ -15068,7 +15068,7 @@
         <v>19501</v>
       </c>
       <c r="B143" t="n">
-        <v>134394</v>
+        <v>165267</v>
       </c>
       <c r="C143" t="s">
         <v>1202</v>
@@ -15218,7 +15218,7 @@
         <v>19501</v>
       </c>
       <c r="B145" t="n">
-        <v>134395</v>
+        <v>165268</v>
       </c>
       <c r="C145" t="s">
         <v>1217</v>
@@ -15293,7 +15293,7 @@
         <v>19501</v>
       </c>
       <c r="B146" t="n">
-        <v>134396</v>
+        <v>165269</v>
       </c>
       <c r="C146" t="s">
         <v>1225</v>
@@ -15368,7 +15368,7 @@
         <v>19501</v>
       </c>
       <c r="B147" t="n">
-        <v>134397</v>
+        <v>165270</v>
       </c>
       <c r="C147" t="s">
         <v>1235</v>
@@ -15443,7 +15443,7 @@
         <v>19501</v>
       </c>
       <c r="B148" t="n">
-        <v>134398</v>
+        <v>165271</v>
       </c>
       <c r="C148" t="s">
         <v>1243</v>
@@ -15656,7 +15656,7 @@
         <v>19501</v>
       </c>
       <c r="B151" t="n">
-        <v>134399</v>
+        <v>165272</v>
       </c>
       <c r="C151" t="s">
         <v>1263</v>
@@ -15727,7 +15727,7 @@
         <v>19501</v>
       </c>
       <c r="B152" t="n">
-        <v>134400</v>
+        <v>165273</v>
       </c>
       <c r="C152" t="s">
         <v>1269</v>
@@ -15798,7 +15798,7 @@
         <v>19501</v>
       </c>
       <c r="B153" t="n">
-        <v>134401</v>
+        <v>165274</v>
       </c>
       <c r="C153" t="s">
         <v>1276</v>
@@ -15869,7 +15869,7 @@
         <v>19501</v>
       </c>
       <c r="B154" t="n">
-        <v>134402</v>
+        <v>165275</v>
       </c>
       <c r="C154" t="s">
         <v>1284</v>
@@ -15942,7 +15942,7 @@
         <v>19501</v>
       </c>
       <c r="B155" t="n">
-        <v>134403</v>
+        <v>165276</v>
       </c>
       <c r="C155" t="s">
         <v>1294</v>
@@ -16013,7 +16013,7 @@
         <v>19501</v>
       </c>
       <c r="B156" t="n">
-        <v>134404</v>
+        <v>165277</v>
       </c>
       <c r="C156" t="s">
         <v>1301</v>
@@ -16163,7 +16163,7 @@
         <v>19501</v>
       </c>
       <c r="B158" t="n">
-        <v>134405</v>
+        <v>165278</v>
       </c>
       <c r="C158" t="s">
         <v>1313</v>
@@ -16238,7 +16238,7 @@
         <v>19501</v>
       </c>
       <c r="B159" t="n">
-        <v>134406</v>
+        <v>165279</v>
       </c>
       <c r="C159" t="s">
         <v>1321</v>
@@ -16313,7 +16313,7 @@
         <v>19501</v>
       </c>
       <c r="B160" t="n">
-        <v>134407</v>
+        <v>165280</v>
       </c>
       <c r="C160" t="s">
         <v>1329</v>
@@ -16384,7 +16384,7 @@
         <v>19501</v>
       </c>
       <c r="B161" t="n">
-        <v>134408</v>
+        <v>165281</v>
       </c>
       <c r="C161" t="s">
         <v>1337</v>
@@ -16457,7 +16457,7 @@
         <v>19501</v>
       </c>
       <c r="B162" t="n">
-        <v>134409</v>
+        <v>165282</v>
       </c>
       <c r="C162" t="s">
         <v>1344</v>
@@ -16528,7 +16528,7 @@
         <v>19501</v>
       </c>
       <c r="B163" t="n">
-        <v>134410</v>
+        <v>165283</v>
       </c>
       <c r="C163" t="s">
         <v>1351</v>
@@ -16599,7 +16599,7 @@
         <v>19501</v>
       </c>
       <c r="B164" t="n">
-        <v>134411</v>
+        <v>165284</v>
       </c>
       <c r="C164" t="s">
         <v>1359</v>
@@ -16670,7 +16670,7 @@
         <v>19501</v>
       </c>
       <c r="B165" t="n">
-        <v>134412</v>
+        <v>165285</v>
       </c>
       <c r="C165" t="s">
         <v>1367</v>
@@ -16741,7 +16741,7 @@
         <v>19501</v>
       </c>
       <c r="B166" t="n">
-        <v>134413</v>
+        <v>165286</v>
       </c>
       <c r="C166" t="s">
         <v>1375</v>
